--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsGarciaDiazVicenteUO42478\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\Universidad\2-Segundo Curso\Segundo Cuatrimestre\Algoritmia\Git\algorithmicsFernandezAriasSaraUO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD47017-13A3-40B4-A991-1C202C3B8F53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4113A3C5-9B9B-4A46-953F-801B5C0FEECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2250" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Please, don't change this file after you indicate your name</t>
   </si>
   <si>
-    <t>García Díaz, Vicente</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Total maximum possible </t>
     </r>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Each session will be graded with a score between 0 and 10</t>
+  </si>
+  <si>
+    <t>Fernández Arias, Sara</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>2</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1030,12 +1030,12 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\Universidad\2-Segundo Curso\Segundo Cuatrimestre\Algoritmia\Git\algorithmicsFernandezAriasSaraUO269546\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4113A3C5-9B9B-4A46-953F-801B5C0FEECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76393E5B-60BB-426C-A765-0CF324D5772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2250" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Student</t>
   </si>
@@ -206,6 +207,12 @@
   </si>
   <si>
     <t>Fernández Arias, Sara</t>
+  </si>
+  <si>
+    <t>TravelPath is not working as expected. Even when it seems that times are not very different, it is not a good idea to mix programs executed in different environments to be compared. The high-performance option is  the best one because that way, the CPU is more stable and does not have to switch between different modes, altering the results. Remember to use nTimes to get higher values (that is, more significant values), since values below 50 are not representative</t>
+  </si>
+  <si>
+    <t>Mark (scale 1-10)</t>
   </si>
 </sst>
 </file>
@@ -257,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,11 +309,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,13 +345,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="8"/>
@@ -341,12 +366,29 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -532,19 +574,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:J4" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Session 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Session 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Session 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Session 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Session 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:K4" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A3:K4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Session 0, 1.1, 1.2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Session 2 (Sorting)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Session 3 (D&amp;C)" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Session 4 (Greedy)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Session 5 (Dynamic Prog.)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mark (scale 1-10)" dataDxfId="1">
+      <calculatedColumnFormula>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{CE0029CA-A569-4687-947D-FC049C9FC5C5}" name="Final mark" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,12 +938,12 @@
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,14 +972,19 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -940,10 +992,19 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
+      <c r="J4" s="12">
+        <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="13">
+        <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -952,8 +1013,8 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -962,8 +1023,8 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -972,8 +1033,8 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -982,8 +1043,8 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -992,8 +1053,8 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1002,8 +1063,8 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1012,8 +1073,8 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1022,18 +1083,18 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76393E5B-60BB-426C-A765-0CF324D5772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA33620-C471-4F22-A314-F3403D99CE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Student</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Mark (scale 1-10)</t>
+  </si>
+  <si>
+    <t>Times below 50 (more or less) are not representative unless you use nTimes and then divide by the number of repetitions to get the time just for one repetition. You can have different units of time in the different columns of a table * Quicksort for inverse and random, if you use a good pivot as the central element, has a O(nlogn) complexity. What it makes the complexity quadratic is a badly chosen pivot. * The Quicksort algorithm is going to sort the elements regardless of the chosen pivot. The "problem" will be that the complexity, instead of O(nlogn) will be O(n^2) because you will not create a perfect tree with the recursive calls; you will create sublists (you only has a subproblem instead of two) - that is the case of QuicksortFateful</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,11 +342,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -351,8 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,14 +927,14 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
@@ -985,103 +991,107 @@
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>8.5</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K4" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA33620-C471-4F22-A314-F3403D99CE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E41F23D-9A34-423D-994D-69112D63D8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Times below 50 (more or less) are not representative unless you use nTimes and then divide by the number of repetitions to get the time just for one repetition. You can have different units of time in the different columns of a table * Quicksort for inverse and random, if you use a good pivot as the central element, has a O(nlogn) complexity. What it makes the complexity quadratic is a badly chosen pivot. * The Quicksort algorithm is going to sort the elements regardless of the chosen pivot. The "problem" will be that the complexity, instead of O(nlogn) will be O(n^2) because you will not create a perfect tree with the recursive calls; you will create sublists (you only has a subproblem instead of two) - that is the case of QuicksortFateful</t>
+  </si>
+  <si>
+    <t>Quadratic times are a little bit weird but you did a good work</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,7 +997,9 @@
       <c r="C4" s="4">
         <v>8.5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1002,7 +1007,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>1.75</v>
+        <v>3.08</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1016,7 +1021,9 @@
       <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E41F23D-9A34-423D-994D-69112D63D8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE538087-7F75-418B-9E8D-F96E60FE7925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Quadratic times are a little bit weird but you did a good work</t>
+  </si>
+  <si>
+    <t>Good but there are 2 problems: 1) pufosos are not correctly calculated (results are not the same as in the document); 2) instead of a cuadratic complextiy you can get a O(nlogn) complexity if you sort the elements beforehand (or if you use a PriorityQueue)</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,14 +1003,16 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>3.08</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1024,7 +1029,9 @@
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE538087-7F75-418B-9E8D-F96E60FE7925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B0A9B-7AF1-4DEC-BDD2-052C845F6589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>Good but there are 2 problems: 1) pufosos are not correctly calculated (results are not the same as in the document); 2) instead of a cuadratic complextiy you can get a O(nlogn) complexity if you sort the elements beforehand (or if you use a PriorityQueue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only dynamic programming but final results are not very good. Keep on!
+</t>
   </si>
 </sst>
 </file>
@@ -333,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +367,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,7 +940,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,13 +1013,15 @@
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>3.8780000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1032,7 +1041,9 @@
       <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1042,7 +1053,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1052,7 +1063,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1062,7 +1073,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1072,7 +1083,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1082,7 +1093,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1092,7 +1103,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1102,7 +1113,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B0A9B-7AF1-4DEC-BDD2-052C845F6589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2EB8C-0A4A-4B48-924C-5111792AA8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -226,6 +226,9 @@
   <si>
     <t xml:space="preserve">Only dynamic programming but final results are not very good. Keep on!
 </t>
+  </si>
+  <si>
+    <t>Very good. Testing it, for the case in which you use List01.txt and lognth lenth (e.g. 100 minutes), there is a problem since you only insert 9 songs (instead of 10).</t>
   </si>
 </sst>
 </file>
@@ -940,7 +943,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,16 +1019,18 @@
       <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>9.5</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>4.28</v>
+        <v>6.1800000000000006</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,7 +1049,9 @@
       <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-FernándezAriasSara-UO269546\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2EB8C-0A4A-4B48-924C-5111792AA8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A09B6-3A9D-4C10-9D1D-B00FD6D3833D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Very good. Testing it, for the case in which you use List01.txt and lognth lenth (e.g. 100 minutes), there is a problem since you only insert 9 songs (instead of 10).</t>
+  </si>
+  <si>
+    <t>Very good. To greatly improve times, you may also comment lines 35 and 37 in Heap.java file. That part is only used to check if a node is already repeated but in this problem that will never happen. The times are going to be much much better without it. Be careful with the toString() method. In order to recoginize two nodes as different, the toString() method should print different information. In your case, two nodes are consider equals if the have the same songs in the same blocks, but if they are at different levels of the tree they should be considered as different. To sum up: you also need to print the level of the node in the toString() method.</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -942,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,15 +1028,19 @@
       <c r="G4" s="4">
         <v>9.5</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>6.1800000000000006</v>
+        <v>8.08</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1052,7 +1062,9 @@
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
